--- a/spliced/walkingToRunning/2023-04-03_16-56-59/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-56-59/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-8.955471992492676</v>
+        <v>8.708540916442871</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.478690624237059</v>
+        <v>0.2552618980407715</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.879208505153656</v>
+        <v>13.9090576171875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-9.966147422790527</v>
+        <v>24.69548416137696</v>
       </c>
       <c r="B3" t="n">
-        <v>-11.9094123840332</v>
+        <v>-32.37852478027344</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.158937454223633</v>
+        <v>-13.10801219940186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-10.28740406036377</v>
+        <v>9.214871406555176</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.176445960998535</v>
+        <v>-8.127243041992188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6272034645080566</v>
+        <v>-7.553183078765869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.756352424621582</v>
+        <v>-1.296450614929199</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.810521125793457</v>
+        <v>-25.33206176757812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0995057821273803</v>
+        <v>4.173199653625488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-8.145963668823242</v>
+        <v>3.13936185836792</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.566216945648193</v>
+        <v>1.159258842468261</v>
       </c>
       <c r="C6" t="n">
-        <v>1.980798721313477</v>
+        <v>10.52872467041016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-9.239094734191896</v>
+        <v>-5.014933586120605</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.039865016937256</v>
+        <v>3.021981239318848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0852295160293579</v>
+        <v>2.716179370880127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.630505561828613</v>
+        <v>12.84034442901611</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.878634452819824</v>
+        <v>-46.83102416992188</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.353561878204346</v>
+        <v>6.994163036346436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.549454212188721</v>
+        <v>39.45174789428711</v>
       </c>
       <c r="B9" t="n">
-        <v>-15.71443271636963</v>
+        <v>18.51260566711425</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.09522819519043</v>
+        <v>-32.22710418701172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-9.743830680847168</v>
+        <v>-25.77109146118164</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.745853424072266</v>
+        <v>-4.628503799438477</v>
       </c>
       <c r="C10" t="n">
-        <v>1.909826517105102</v>
+        <v>-10.99930953979492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-10.23236083984375</v>
+        <v>-25.15040969848633</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.307059288024902</v>
+        <v>-52.22837066650391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4284887611865997</v>
+        <v>40.054931640625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.6311178207397461</v>
+        <v>-0.4132165908813476</v>
       </c>
       <c r="B12" t="n">
-        <v>1.752397060394287</v>
+        <v>5.698812484741211</v>
       </c>
       <c r="C12" t="n">
-        <v>2.64894962310791</v>
+        <v>7.912927150726318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.708540916442871</v>
+        <v>17.88103866577148</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2552618980407715</v>
+        <v>1.754395723342896</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9090576171875</v>
+        <v>14.25908279418945</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>24.69548416137696</v>
+        <v>-0.3170166015625</v>
       </c>
       <c r="B14" t="n">
-        <v>-32.37852478027344</v>
+        <v>-36.44598770141602</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.10801219940186</v>
+        <v>3.271512508392334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.214871406555176</v>
+        <v>10.27998065948486</v>
       </c>
       <c r="B15" t="n">
-        <v>-8.127243041992188</v>
+        <v>5.400233268737793</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.553183078765869</v>
+        <v>-10.95361423492432</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.296450614929199</v>
+        <v>-23.53899955749512</v>
       </c>
       <c r="B16" t="n">
-        <v>-25.33206176757812</v>
+        <v>-6.704813957214356</v>
       </c>
       <c r="C16" t="n">
-        <v>4.173199653625488</v>
+        <v>-13.04527854919434</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.13936185836792</v>
+        <v>17.90056037902832</v>
       </c>
       <c r="B17" t="n">
-        <v>1.159258842468261</v>
+        <v>-19.72356796264648</v>
       </c>
       <c r="C17" t="n">
-        <v>10.52872467041016</v>
+        <v>-5.512706756591797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.014933586120605</v>
+        <v>-16.73113822937012</v>
       </c>
       <c r="B18" t="n">
-        <v>3.021981239318848</v>
+        <v>13.58313274383545</v>
       </c>
       <c r="C18" t="n">
-        <v>2.716179370880127</v>
+        <v>5.493848323822021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.84034442901611</v>
+        <v>4.27336597442627</v>
       </c>
       <c r="B19" t="n">
-        <v>-46.83102416992188</v>
+        <v>-17.7934684753418</v>
       </c>
       <c r="C19" t="n">
-        <v>6.994163036346436</v>
+        <v>25.06283569335937</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>39.45174789428711</v>
+        <v>-30.59529876708984</v>
       </c>
       <c r="B20" t="n">
-        <v>18.51260566711425</v>
+        <v>-20.34370040893555</v>
       </c>
       <c r="C20" t="n">
-        <v>-32.22710418701172</v>
+        <v>-32.5362548828125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-25.77109146118164</v>
+        <v>4.83027458190918</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.628503799438477</v>
+        <v>5.810257911682129</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.99930953979492</v>
+        <v>-21.42179489135743</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-11.62696266174316</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-21.11956596374512</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-16.67885398864746</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-13.2412109375</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.214882850646973</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22.37087440490723</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-15.93152809143066</v>
+      </c>
+      <c r="B24" t="n">
+        <v>19.48006248474121</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.360580921173096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32.82965087890625</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-70.24890899658203</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12.97732639312744</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-13.05622291564941</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.201236724853516</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-37.13468551635742</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-35.03109741210938</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.42187762260437</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-11.56947135925293</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-34.99357986450195</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-38.73427581787109</v>
+      </c>
+      <c r="C28" t="n">
+        <v>22.45726585388184</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-5.411000728607178</v>
+      </c>
+      <c r="B29" t="n">
+        <v>11.04445457458496</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.496528625488279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.176581859588623</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.73018646240234</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.936479568481445</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9.547159194946287</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-75.66817474365234</v>
+      </c>
+      <c r="C31" t="n">
+        <v>32.35793304443359</v>
       </c>
     </row>
   </sheetData>
